--- a/data/raw/election/voters-age-sex-education/2023/Isparta.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Isparta.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:43:18-78707243572" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="42">
   <si>
     <t>Isparta</t>
   </si>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>Yenişarbademli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -693,10 +698,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:A344"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,24 +1054,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2091,8 +2105,8 @@
       <c r="D30" s="5">
         <v>368</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.0660000000000001</v>
+      <c r="E30" s="7">
+        <v>1066</v>
       </c>
       <c r="F30" s="5">
         <v>250</v>
@@ -2115,8 +2129,8 @@
       <c r="L30" s="5">
         <v>11</v>
       </c>
-      <c r="M30" s="5">
-        <v>3.48</v>
+      <c r="M30" s="7">
+        <v>3480</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3129,8 +3143,8 @@
       <c r="D56" s="5">
         <v>173</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.206</v>
+      <c r="E56" s="7">
+        <v>1206</v>
       </c>
       <c r="F56" s="5">
         <v>414</v>
@@ -3138,8 +3152,8 @@
       <c r="G56" s="5">
         <v>646</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.276</v>
+      <c r="H56" s="7">
+        <v>1276</v>
       </c>
       <c r="I56" s="5">
         <v>830</v>
@@ -3153,8 +3167,8 @@
       <c r="L56" s="5">
         <v>15</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.6669999999999998</v>
+      <c r="M56" s="7">
+        <v>4667</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3233,8 +3247,8 @@
       <c r="L58" s="4">
         <v>15</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.387</v>
+      <c r="M58" s="7">
+        <v>1387</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3272,8 +3286,8 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.3009999999999999</v>
+      <c r="M59" s="7">
+        <v>1301</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3553,8 +3567,8 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M66" s="7">
+        <v>1003</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3713,8 +3727,8 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.032</v>
+      <c r="M70" s="7">
+        <v>1032</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3752,8 +3766,8 @@
       <c r="L71" s="4">
         <v>7</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.121</v>
+      <c r="M71" s="7">
+        <v>1121</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,8 +3807,8 @@
       <c r="L72" s="4">
         <v>5</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.0580000000000001</v>
+      <c r="M72" s="7">
+        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3832,8 +3846,8 @@
       <c r="L73" s="4">
         <v>7</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.044</v>
+      <c r="M73" s="7">
+        <v>1044</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3912,8 +3926,8 @@
       <c r="L75" s="4">
         <v>8</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.014</v>
+      <c r="M75" s="7">
+        <v>1014</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,8 +4166,8 @@
       <c r="L81" s="4">
         <v>13</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.25</v>
+      <c r="M81" s="7">
+        <v>1250</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4167,20 +4181,20 @@
       <c r="D82" s="5">
         <v>865</v>
       </c>
-      <c r="E82" s="5">
-        <v>6.7880000000000003</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.964</v>
-      </c>
-      <c r="H82" s="5">
-        <v>6.7590000000000003</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.5750000000000002</v>
+      <c r="E82" s="7">
+        <v>6788</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1799</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2964</v>
+      </c>
+      <c r="H82" s="7">
+        <v>6759</v>
+      </c>
+      <c r="I82" s="7">
+        <v>3575</v>
       </c>
       <c r="J82" s="5">
         <v>317</v>
@@ -4191,8 +4205,8 @@
       <c r="L82" s="5">
         <v>116</v>
       </c>
-      <c r="M82" s="5">
-        <v>23.667999999999999</v>
+      <c r="M82" s="7">
+        <v>23668</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5205,17 +5219,17 @@
       <c r="D108" s="5">
         <v>570</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.8</v>
+      <c r="E108" s="7">
+        <v>4800</v>
       </c>
       <c r="F108" s="5">
         <v>985</v>
       </c>
-      <c r="G108" s="5">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.298</v>
+      <c r="G108" s="7">
+        <v>1687</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2298</v>
       </c>
       <c r="I108" s="5">
         <v>965</v>
@@ -5229,8 +5243,8 @@
       <c r="L108" s="5">
         <v>252</v>
       </c>
-      <c r="M108" s="5">
-        <v>11.842000000000001</v>
+      <c r="M108" s="7">
+        <v>11842</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6243,8 +6257,8 @@
       <c r="D134" s="5">
         <v>142</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.595</v>
+      <c r="E134" s="7">
+        <v>1595</v>
       </c>
       <c r="F134" s="5">
         <v>494</v>
@@ -6252,8 +6266,8 @@
       <c r="G134" s="5">
         <v>870</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.3979999999999999</v>
+      <c r="H134" s="7">
+        <v>1398</v>
       </c>
       <c r="I134" s="5">
         <v>855</v>
@@ -6267,8 +6281,8 @@
       <c r="L134" s="5">
         <v>62</v>
       </c>
-      <c r="M134" s="5">
-        <v>5.633</v>
+      <c r="M134" s="7">
+        <v>5633</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6329,14 +6343,14 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>2.347</v>
-      </c>
-      <c r="H136" s="4">
-        <v>8.8219999999999992</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1.8009999999999999</v>
+      <c r="G136" s="9">
+        <v>2347</v>
+      </c>
+      <c r="H136" s="9">
+        <v>8822</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1801</v>
       </c>
       <c r="J136" s="4">
         <v>29</v>
@@ -6347,8 +6361,8 @@
       <c r="L136" s="4">
         <v>89</v>
       </c>
-      <c r="M136" s="5">
-        <v>13.114000000000001</v>
+      <c r="M136" s="7">
+        <v>13114</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,14 +6382,14 @@
       <c r="F137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.623</v>
-      </c>
-      <c r="H137" s="4">
-        <v>8.6210000000000004</v>
-      </c>
-      <c r="I137" s="4">
-        <v>2.8980000000000001</v>
+      <c r="G137" s="9">
+        <v>1623</v>
+      </c>
+      <c r="H137" s="9">
+        <v>8621</v>
+      </c>
+      <c r="I137" s="9">
+        <v>2898</v>
       </c>
       <c r="J137" s="4">
         <v>45</v>
@@ -6386,8 +6400,8 @@
       <c r="L137" s="4">
         <v>36</v>
       </c>
-      <c r="M137" s="5">
-        <v>13.27</v>
+      <c r="M137" s="7">
+        <v>13270</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,14 +6423,14 @@
       <c r="F138" s="4">
         <v>22</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.331</v>
-      </c>
-      <c r="H138" s="4">
-        <v>3.0230000000000001</v>
-      </c>
-      <c r="I138" s="4">
-        <v>4.0289999999999999</v>
+      <c r="G138" s="9">
+        <v>1331</v>
+      </c>
+      <c r="H138" s="9">
+        <v>3023</v>
+      </c>
+      <c r="I138" s="9">
+        <v>4029</v>
       </c>
       <c r="J138" s="4">
         <v>485</v>
@@ -6427,8 +6441,8 @@
       <c r="L138" s="4">
         <v>51</v>
       </c>
-      <c r="M138" s="5">
-        <v>8.9779999999999998</v>
+      <c r="M138" s="7">
+        <v>8978</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6448,14 +6462,14 @@
       <c r="F139" s="4">
         <v>28</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.073</v>
-      </c>
-      <c r="H139" s="4">
-        <v>2.258</v>
-      </c>
-      <c r="I139" s="4">
-        <v>4.9989999999999997</v>
+      <c r="G139" s="9">
+        <v>1073</v>
+      </c>
+      <c r="H139" s="9">
+        <v>2258</v>
+      </c>
+      <c r="I139" s="9">
+        <v>4999</v>
       </c>
       <c r="J139" s="4">
         <v>638</v>
@@ -6466,8 +6480,8 @@
       <c r="L139" s="4">
         <v>40</v>
       </c>
-      <c r="M139" s="5">
-        <v>9.1140000000000008</v>
+      <c r="M139" s="7">
+        <v>9114</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,11 +6506,11 @@
       <c r="G140" s="4">
         <v>646</v>
       </c>
-      <c r="H140" s="4">
-        <v>2.88</v>
-      </c>
-      <c r="I140" s="4">
-        <v>3.45</v>
+      <c r="H140" s="9">
+        <v>2880</v>
+      </c>
+      <c r="I140" s="9">
+        <v>3450</v>
       </c>
       <c r="J140" s="4">
         <v>680</v>
@@ -6507,8 +6521,8 @@
       <c r="L140" s="4">
         <v>40</v>
       </c>
-      <c r="M140" s="5">
-        <v>8.5259999999999998</v>
+      <c r="M140" s="7">
+        <v>8526</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6531,11 +6545,11 @@
       <c r="G141" s="4">
         <v>549</v>
       </c>
-      <c r="H141" s="4">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="I141" s="4">
-        <v>3.847</v>
+      <c r="H141" s="9">
+        <v>2554</v>
+      </c>
+      <c r="I141" s="9">
+        <v>3847</v>
       </c>
       <c r="J141" s="4">
         <v>742</v>
@@ -6546,8 +6560,8 @@
       <c r="L141" s="4">
         <v>37</v>
       </c>
-      <c r="M141" s="5">
-        <v>8.8059999999999992</v>
+      <c r="M141" s="7">
+        <v>8806</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6566,17 +6580,17 @@
       <c r="E142" s="4">
         <v>195</v>
       </c>
-      <c r="F142" s="4">
-        <v>1.0069999999999999</v>
+      <c r="F142" s="9">
+        <v>1007</v>
       </c>
       <c r="G142" s="4">
         <v>557</v>
       </c>
-      <c r="H142" s="4">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="I142" s="4">
-        <v>3.2469999999999999</v>
+      <c r="H142" s="9">
+        <v>3255</v>
+      </c>
+      <c r="I142" s="9">
+        <v>3247</v>
       </c>
       <c r="J142" s="4">
         <v>611</v>
@@ -6587,8 +6601,8 @@
       <c r="L142" s="4">
         <v>57</v>
       </c>
-      <c r="M142" s="5">
-        <v>9.1839999999999993</v>
+      <c r="M142" s="7">
+        <v>9184</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6611,11 +6625,11 @@
       <c r="G143" s="4">
         <v>725</v>
       </c>
-      <c r="H143" s="4">
-        <v>3.161</v>
-      </c>
-      <c r="I143" s="4">
-        <v>3.222</v>
+      <c r="H143" s="9">
+        <v>3161</v>
+      </c>
+      <c r="I143" s="9">
+        <v>3222</v>
       </c>
       <c r="J143" s="4">
         <v>655</v>
@@ -6626,8 +6640,8 @@
       <c r="L143" s="4">
         <v>47</v>
       </c>
-      <c r="M143" s="5">
-        <v>9.6839999999999993</v>
+      <c r="M143" s="7">
+        <v>9684</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6649,14 +6663,14 @@
       <c r="F144" s="4">
         <v>936</v>
       </c>
-      <c r="G144" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="H144" s="4">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="I144" s="4">
-        <v>2.8929999999999998</v>
+      <c r="G144" s="9">
+        <v>1060</v>
+      </c>
+      <c r="H144" s="9">
+        <v>3454</v>
+      </c>
+      <c r="I144" s="9">
+        <v>2893</v>
       </c>
       <c r="J144" s="4">
         <v>673</v>
@@ -6667,8 +6681,8 @@
       <c r="L144" s="4">
         <v>41</v>
       </c>
-      <c r="M144" s="5">
-        <v>9.85</v>
+      <c r="M144" s="7">
+        <v>9850</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6682,20 +6696,20 @@
       <c r="D145" s="4">
         <v>37</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.268</v>
+      <c r="E145" s="9">
+        <v>1268</v>
       </c>
       <c r="F145" s="4">
         <v>947</v>
       </c>
-      <c r="G145" s="4">
-        <v>1.284</v>
-      </c>
-      <c r="H145" s="4">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="I145" s="4">
-        <v>2.8410000000000002</v>
+      <c r="G145" s="9">
+        <v>1284</v>
+      </c>
+      <c r="H145" s="9">
+        <v>3425</v>
+      </c>
+      <c r="I145" s="9">
+        <v>2841</v>
       </c>
       <c r="J145" s="4">
         <v>576</v>
@@ -6706,8 +6720,8 @@
       <c r="L145" s="4">
         <v>49</v>
       </c>
-      <c r="M145" s="5">
-        <v>10.696</v>
+      <c r="M145" s="7">
+        <v>10696</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6726,17 +6740,17 @@
       <c r="E146" s="4">
         <v>710</v>
       </c>
-      <c r="F146" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="G146" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="H146" s="4">
-        <v>2.9209999999999998</v>
-      </c>
-      <c r="I146" s="4">
-        <v>2.6509999999999998</v>
+      <c r="F146" s="9">
+        <v>1204</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1018</v>
+      </c>
+      <c r="H146" s="9">
+        <v>2921</v>
+      </c>
+      <c r="I146" s="9">
+        <v>2651</v>
       </c>
       <c r="J146" s="4">
         <v>492</v>
@@ -6747,8 +6761,8 @@
       <c r="L146" s="4">
         <v>60</v>
       </c>
-      <c r="M146" s="5">
-        <v>9.3309999999999995</v>
+      <c r="M146" s="7">
+        <v>9331</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6762,20 +6776,20 @@
       <c r="D147" s="4">
         <v>34</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.583</v>
-      </c>
-      <c r="F147" s="4">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="G147" s="4">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="H147" s="4">
-        <v>2.758</v>
-      </c>
-      <c r="I147" s="4">
-        <v>2.1179999999999999</v>
+      <c r="E147" s="9">
+        <v>1583</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1184</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1267</v>
+      </c>
+      <c r="H147" s="9">
+        <v>2758</v>
+      </c>
+      <c r="I147" s="9">
+        <v>2118</v>
       </c>
       <c r="J147" s="4">
         <v>319</v>
@@ -6786,8 +6800,8 @@
       <c r="L147" s="4">
         <v>66</v>
       </c>
-      <c r="M147" s="5">
-        <v>9.5429999999999993</v>
+      <c r="M147" s="7">
+        <v>9543</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6806,17 +6820,17 @@
       <c r="E148" s="4">
         <v>864</v>
       </c>
-      <c r="F148" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="G148" s="4">
-        <v>1.052</v>
-      </c>
-      <c r="H148" s="4">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="I148" s="4">
-        <v>2.1589999999999998</v>
+      <c r="F148" s="9">
+        <v>1174</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1052</v>
+      </c>
+      <c r="H148" s="9">
+        <v>2116</v>
+      </c>
+      <c r="I148" s="9">
+        <v>2159</v>
       </c>
       <c r="J148" s="4">
         <v>304</v>
@@ -6827,8 +6841,8 @@
       <c r="L148" s="4">
         <v>56</v>
       </c>
-      <c r="M148" s="5">
-        <v>8</v>
+      <c r="M148" s="7">
+        <v>8000</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6842,20 +6856,20 @@
       <c r="D149" s="4">
         <v>52</v>
       </c>
-      <c r="E149" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F149" s="4">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G149" s="4">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="H149" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="I149" s="4">
-        <v>1.2330000000000001</v>
+      <c r="E149" s="9">
+        <v>2240</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1187</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1223</v>
+      </c>
+      <c r="H149" s="9">
+        <v>2040</v>
+      </c>
+      <c r="I149" s="9">
+        <v>1233</v>
       </c>
       <c r="J149" s="4">
         <v>143</v>
@@ -6866,8 +6880,8 @@
       <c r="L149" s="4">
         <v>78</v>
       </c>
-      <c r="M149" s="5">
-        <v>8.35</v>
+      <c r="M149" s="7">
+        <v>8350</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6883,8 +6897,8 @@
       <c r="D150" s="4">
         <v>12</v>
       </c>
-      <c r="E150" s="4">
-        <v>1.294</v>
+      <c r="E150" s="9">
+        <v>1294</v>
       </c>
       <c r="F150" s="4">
         <v>922</v>
@@ -6892,11 +6906,11 @@
       <c r="G150" s="4">
         <v>996</v>
       </c>
-      <c r="H150" s="4">
-        <v>1.645</v>
-      </c>
-      <c r="I150" s="4">
-        <v>1.6679999999999999</v>
+      <c r="H150" s="9">
+        <v>1645</v>
+      </c>
+      <c r="I150" s="9">
+        <v>1668</v>
       </c>
       <c r="J150" s="4">
         <v>191</v>
@@ -6907,8 +6921,8 @@
       <c r="L150" s="4">
         <v>71</v>
       </c>
-      <c r="M150" s="5">
-        <v>6.968</v>
+      <c r="M150" s="7">
+        <v>6968</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6922,8 +6936,8 @@
       <c r="D151" s="4">
         <v>116</v>
       </c>
-      <c r="E151" s="4">
-        <v>2.7850000000000001</v>
+      <c r="E151" s="9">
+        <v>2785</v>
       </c>
       <c r="F151" s="4">
         <v>785</v>
@@ -6931,8 +6945,8 @@
       <c r="G151" s="4">
         <v>933</v>
       </c>
-      <c r="H151" s="4">
-        <v>1.5980000000000001</v>
+      <c r="H151" s="9">
+        <v>1598</v>
       </c>
       <c r="I151" s="4">
         <v>769</v>
@@ -6946,8 +6960,8 @@
       <c r="L151" s="4">
         <v>77</v>
       </c>
-      <c r="M151" s="5">
-        <v>7.2789999999999999</v>
+      <c r="M151" s="7">
+        <v>7279</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6963,8 +6977,8 @@
       <c r="D152" s="4">
         <v>19</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.865</v>
+      <c r="E152" s="9">
+        <v>1865</v>
       </c>
       <c r="F152" s="4">
         <v>532</v>
@@ -6972,11 +6986,11 @@
       <c r="G152" s="4">
         <v>738</v>
       </c>
-      <c r="H152" s="4">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="I152" s="4">
-        <v>1.3560000000000001</v>
+      <c r="H152" s="9">
+        <v>1443</v>
+      </c>
+      <c r="I152" s="9">
+        <v>1356</v>
       </c>
       <c r="J152" s="4">
         <v>99</v>
@@ -6987,8 +7001,8 @@
       <c r="L152" s="4">
         <v>69</v>
       </c>
-      <c r="M152" s="5">
-        <v>6.2460000000000004</v>
+      <c r="M152" s="7">
+        <v>6246</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7002,8 +7016,8 @@
       <c r="D153" s="4">
         <v>203</v>
       </c>
-      <c r="E153" s="4">
-        <v>3.47</v>
+      <c r="E153" s="9">
+        <v>3470</v>
       </c>
       <c r="F153" s="4">
         <v>415</v>
@@ -7011,8 +7025,8 @@
       <c r="G153" s="4">
         <v>527</v>
       </c>
-      <c r="H153" s="4">
-        <v>1.0760000000000001</v>
+      <c r="H153" s="9">
+        <v>1076</v>
       </c>
       <c r="I153" s="4">
         <v>568</v>
@@ -7026,8 +7040,8 @@
       <c r="L153" s="4">
         <v>96</v>
       </c>
-      <c r="M153" s="5">
-        <v>6.6369999999999996</v>
+      <c r="M153" s="7">
+        <v>6637</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7043,8 +7057,8 @@
       <c r="D154" s="4">
         <v>42</v>
       </c>
-      <c r="E154" s="4">
-        <v>2.0049999999999999</v>
+      <c r="E154" s="9">
+        <v>2005</v>
       </c>
       <c r="F154" s="4">
         <v>194</v>
@@ -7055,8 +7069,8 @@
       <c r="H154" s="4">
         <v>924</v>
       </c>
-      <c r="I154" s="4">
-        <v>1.1000000000000001</v>
+      <c r="I154" s="9">
+        <v>1100</v>
       </c>
       <c r="J154" s="4">
         <v>51</v>
@@ -7067,8 +7081,8 @@
       <c r="L154" s="4">
         <v>70</v>
       </c>
-      <c r="M154" s="5">
-        <v>4.9770000000000003</v>
+      <c r="M154" s="7">
+        <v>4977</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7082,8 +7096,8 @@
       <c r="D155" s="4">
         <v>333</v>
       </c>
-      <c r="E155" s="4">
-        <v>3.2130000000000001</v>
+      <c r="E155" s="9">
+        <v>3213</v>
       </c>
       <c r="F155" s="4">
         <v>165</v>
@@ -7106,8 +7120,8 @@
       <c r="L155" s="4">
         <v>69</v>
       </c>
-      <c r="M155" s="5">
-        <v>5.5170000000000003</v>
+      <c r="M155" s="7">
+        <v>5517</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7123,8 +7137,8 @@
       <c r="D156" s="4">
         <v>50</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.6919999999999999</v>
+      <c r="E156" s="9">
+        <v>1692</v>
       </c>
       <c r="F156" s="4">
         <v>54</v>
@@ -7147,8 +7161,8 @@
       <c r="L156" s="4">
         <v>62</v>
       </c>
-      <c r="M156" s="5">
-        <v>3.4940000000000002</v>
+      <c r="M156" s="7">
+        <v>3494</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7162,8 +7176,8 @@
       <c r="D157" s="4">
         <v>378</v>
       </c>
-      <c r="E157" s="4">
-        <v>2.3559999999999999</v>
+      <c r="E157" s="9">
+        <v>2356</v>
       </c>
       <c r="F157" s="4">
         <v>43</v>
@@ -7186,8 +7200,8 @@
       <c r="L157" s="4">
         <v>87</v>
       </c>
-      <c r="M157" s="5">
-        <v>3.899</v>
+      <c r="M157" s="7">
+        <v>3899</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7203,8 +7217,8 @@
       <c r="D158" s="4">
         <v>206</v>
       </c>
-      <c r="E158" s="4">
-        <v>2.069</v>
+      <c r="E158" s="9">
+        <v>2069</v>
       </c>
       <c r="F158" s="4">
         <v>24</v>
@@ -7227,8 +7241,8 @@
       <c r="L158" s="4">
         <v>82</v>
       </c>
-      <c r="M158" s="5">
-        <v>3.6789999999999998</v>
+      <c r="M158" s="7">
+        <v>3679</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7236,14 +7250,14 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.169</v>
+      <c r="C159" s="9">
+        <v>1169</v>
       </c>
       <c r="D159" s="4">
         <v>851</v>
       </c>
-      <c r="E159" s="4">
-        <v>2.496</v>
+      <c r="E159" s="9">
+        <v>2496</v>
       </c>
       <c r="F159" s="4">
         <v>17</v>
@@ -7266,8 +7280,8 @@
       <c r="L159" s="4">
         <v>117</v>
       </c>
-      <c r="M159" s="5">
-        <v>5.07</v>
+      <c r="M159" s="7">
+        <v>5070</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7275,38 +7289,38 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>2.7160000000000002</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="E160" s="5">
-        <v>31.41</v>
-      </c>
-      <c r="F160" s="5">
-        <v>13.396000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>20.620999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>59.944000000000003</v>
-      </c>
-      <c r="I160" s="5">
-        <v>48.777000000000001</v>
-      </c>
-      <c r="J160" s="5">
-        <v>6.9219999999999997</v>
-      </c>
-      <c r="K160" s="5">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="L160" s="5">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="M160" s="5">
-        <v>190.21199999999999</v>
+      <c r="C160" s="7">
+        <v>2716</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2612</v>
+      </c>
+      <c r="E160" s="7">
+        <v>31410</v>
+      </c>
+      <c r="F160" s="7">
+        <v>13396</v>
+      </c>
+      <c r="G160" s="7">
+        <v>20621</v>
+      </c>
+      <c r="H160" s="7">
+        <v>59944</v>
+      </c>
+      <c r="I160" s="7">
+        <v>48777</v>
+      </c>
+      <c r="J160" s="7">
+        <v>6922</v>
+      </c>
+      <c r="K160" s="7">
+        <v>2267</v>
+      </c>
+      <c r="L160" s="7">
+        <v>1547</v>
+      </c>
+      <c r="M160" s="7">
+        <v>190212</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8319,20 +8333,20 @@
       <c r="D186" s="5">
         <v>335</v>
       </c>
-      <c r="E186" s="5">
-        <v>3.758</v>
+      <c r="E186" s="7">
+        <v>3758</v>
       </c>
       <c r="F186" s="5">
         <v>637</v>
       </c>
-      <c r="G186" s="5">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="H186" s="5">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.6559999999999999</v>
+      <c r="G186" s="7">
+        <v>1451</v>
+      </c>
+      <c r="H186" s="7">
+        <v>2844</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1656</v>
       </c>
       <c r="J186" s="5">
         <v>98</v>
@@ -8343,8 +8357,8 @@
       <c r="L186" s="5">
         <v>174</v>
       </c>
-      <c r="M186" s="5">
-        <v>11.201000000000001</v>
+      <c r="M186" s="7">
+        <v>11201</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9357,20 +9371,20 @@
       <c r="D212" s="5">
         <v>457</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.2909999999999999</v>
+      <c r="E212" s="7">
+        <v>2291</v>
       </c>
       <c r="F212" s="5">
         <v>518</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.202</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.492</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.135</v>
+      <c r="G212" s="7">
+        <v>1202</v>
+      </c>
+      <c r="H212" s="7">
+        <v>2492</v>
+      </c>
+      <c r="I212" s="7">
+        <v>1135</v>
       </c>
       <c r="J212" s="5">
         <v>81</v>
@@ -9381,8 +9395,8 @@
       <c r="L212" s="5">
         <v>64</v>
       </c>
-      <c r="M212" s="5">
-        <v>8.5549999999999997</v>
+      <c r="M212" s="7">
+        <v>8555</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10395,17 +10409,17 @@
       <c r="D238" s="5">
         <v>556</v>
       </c>
-      <c r="E238" s="5">
-        <v>3.0659999999999998</v>
+      <c r="E238" s="7">
+        <v>3066</v>
       </c>
       <c r="F238" s="5">
         <v>773</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>1.423</v>
+      <c r="G238" s="7">
+        <v>1043</v>
+      </c>
+      <c r="H238" s="7">
+        <v>1423</v>
       </c>
       <c r="I238" s="5">
         <v>708</v>
@@ -10419,8 +10433,8 @@
       <c r="L238" s="5">
         <v>22</v>
       </c>
-      <c r="M238" s="5">
-        <v>8.2200000000000006</v>
+      <c r="M238" s="7">
+        <v>8220</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11178,8 +11192,8 @@
       <c r="L257" s="4">
         <v>19</v>
       </c>
-      <c r="M257" s="5">
-        <v>1.0780000000000001</v>
+      <c r="M257" s="7">
+        <v>1078</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11418,8 +11432,8 @@
       <c r="L263" s="4">
         <v>14</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.143</v>
+      <c r="M263" s="7">
+        <v>1143</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11433,20 +11447,20 @@
       <c r="D264" s="5">
         <v>789</v>
       </c>
-      <c r="E264" s="5">
-        <v>6.7350000000000003</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="G264" s="5">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="H264" s="5">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="I264" s="5">
-        <v>2.4009999999999998</v>
+      <c r="E264" s="7">
+        <v>6735</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1582</v>
+      </c>
+      <c r="G264" s="7">
+        <v>2237</v>
+      </c>
+      <c r="H264" s="7">
+        <v>4568</v>
+      </c>
+      <c r="I264" s="7">
+        <v>2401</v>
       </c>
       <c r="J264" s="5">
         <v>212</v>
@@ -11457,8 +11471,8 @@
       <c r="L264" s="5">
         <v>368</v>
       </c>
-      <c r="M264" s="5">
-        <v>19.558</v>
+      <c r="M264" s="7">
+        <v>19558</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12471,8 +12485,8 @@
       <c r="D290" s="5">
         <v>99</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.278</v>
+      <c r="E290" s="7">
+        <v>1278</v>
       </c>
       <c r="F290" s="5">
         <v>241</v>
@@ -12480,8 +12494,8 @@
       <c r="G290" s="5">
         <v>572</v>
       </c>
-      <c r="H290" s="5">
-        <v>1.3169999999999999</v>
+      <c r="H290" s="7">
+        <v>1317</v>
       </c>
       <c r="I290" s="5">
         <v>798</v>
@@ -12495,8 +12509,8 @@
       <c r="L290" s="5">
         <v>43</v>
       </c>
-      <c r="M290" s="5">
-        <v>4.476</v>
+      <c r="M290" s="7">
+        <v>4476</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12560,8 +12574,8 @@
       <c r="G292" s="4">
         <v>529</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.1359999999999999</v>
+      <c r="H292" s="9">
+        <v>1136</v>
       </c>
       <c r="I292" s="4">
         <v>202</v>
@@ -12575,8 +12589,8 @@
       <c r="L292" s="4">
         <v>36</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.996</v>
+      <c r="M292" s="7">
+        <v>1996</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12599,8 +12613,8 @@
       <c r="G293" s="4">
         <v>413</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.087</v>
+      <c r="H293" s="9">
+        <v>1087</v>
       </c>
       <c r="I293" s="4">
         <v>321</v>
@@ -12614,8 +12628,8 @@
       <c r="L293" s="4">
         <v>24</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.946</v>
+      <c r="M293" s="7">
+        <v>1946</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12655,8 +12669,8 @@
       <c r="L294" s="4">
         <v>19</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.3660000000000001</v>
+      <c r="M294" s="7">
+        <v>1366</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12694,8 +12708,8 @@
       <c r="L295" s="4">
         <v>13</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.2769999999999999</v>
+      <c r="M295" s="7">
+        <v>1277</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12735,8 +12749,8 @@
       <c r="L296" s="4">
         <v>17</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M296" s="7">
+        <v>1314</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12774,8 +12788,8 @@
       <c r="L297" s="4">
         <v>17</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.2270000000000001</v>
+      <c r="M297" s="7">
+        <v>1227</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12815,8 +12829,8 @@
       <c r="L298" s="4">
         <v>25</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M298" s="7">
+        <v>1489</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12854,8 +12868,8 @@
       <c r="L299" s="4">
         <v>25</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.35</v>
+      <c r="M299" s="7">
+        <v>1350</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12895,8 +12909,8 @@
       <c r="L300" s="4">
         <v>31</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.4810000000000001</v>
+      <c r="M300" s="7">
+        <v>1481</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12934,8 +12948,8 @@
       <c r="L301" s="4">
         <v>28</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.401</v>
+      <c r="M301" s="7">
+        <v>1401</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12975,8 +12989,8 @@
       <c r="L302" s="4">
         <v>32</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.3919999999999999</v>
+      <c r="M302" s="7">
+        <v>1392</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13014,8 +13028,8 @@
       <c r="L303" s="4">
         <v>24</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.3440000000000001</v>
+      <c r="M303" s="7">
+        <v>1344</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13055,8 +13069,8 @@
       <c r="L304" s="4">
         <v>31</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.4510000000000001</v>
+      <c r="M304" s="7">
+        <v>1451</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13094,8 +13108,8 @@
       <c r="L305" s="4">
         <v>32</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.4790000000000001</v>
+      <c r="M305" s="7">
+        <v>1479</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13135,8 +13149,8 @@
       <c r="L306" s="4">
         <v>39</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.34</v>
+      <c r="M306" s="7">
+        <v>1340</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13174,8 +13188,8 @@
       <c r="L307" s="4">
         <v>45</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.534</v>
+      <c r="M307" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13215,8 +13229,8 @@
       <c r="L308" s="4">
         <v>34</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M308" s="7">
+        <v>1547</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13230,8 +13244,8 @@
       <c r="D309" s="4">
         <v>92</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E309" s="9">
+        <v>1059</v>
       </c>
       <c r="F309" s="4">
         <v>89</v>
@@ -13254,8 +13268,8 @@
       <c r="L309" s="4">
         <v>48</v>
       </c>
-      <c r="M309" s="5">
-        <v>1.619</v>
+      <c r="M309" s="7">
+        <v>1619</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13295,8 +13309,8 @@
       <c r="L310" s="4">
         <v>43</v>
       </c>
-      <c r="M310" s="5">
-        <v>1.236</v>
+      <c r="M310" s="7">
+        <v>1236</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13334,8 +13348,8 @@
       <c r="L311" s="4">
         <v>43</v>
       </c>
-      <c r="M311" s="5">
-        <v>1.478</v>
+      <c r="M311" s="7">
+        <v>1478</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13375,8 +13389,8 @@
       <c r="L312" s="4">
         <v>50</v>
       </c>
-      <c r="M312" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M312" s="7">
+        <v>1001</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13414,8 +13428,8 @@
       <c r="L313" s="4">
         <v>37</v>
       </c>
-      <c r="M313" s="5">
-        <v>1.151</v>
+      <c r="M313" s="7">
+        <v>1151</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13455,8 +13469,8 @@
       <c r="L314" s="4">
         <v>40</v>
       </c>
-      <c r="M314" s="5">
-        <v>1.3149999999999999</v>
+      <c r="M314" s="7">
+        <v>1315</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13494,8 +13508,8 @@
       <c r="L315" s="4">
         <v>47</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M315" s="7">
+        <v>1993</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13503,26 +13517,26 @@
         <v>12</v>
       </c>
       <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="D316" s="5">
-        <v>1.407</v>
-      </c>
-      <c r="E316" s="5">
-        <v>10.948</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.9830000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>4.7249999999999996</v>
-      </c>
-      <c r="H316" s="5">
-        <v>7.6660000000000004</v>
-      </c>
-      <c r="I316" s="5">
-        <v>4.3819999999999997</v>
+      <c r="C316" s="7">
+        <v>1340</v>
+      </c>
+      <c r="D316" s="7">
+        <v>1407</v>
+      </c>
+      <c r="E316" s="7">
+        <v>10948</v>
+      </c>
+      <c r="F316" s="7">
+        <v>2983</v>
+      </c>
+      <c r="G316" s="7">
+        <v>4725</v>
+      </c>
+      <c r="H316" s="7">
+        <v>7666</v>
+      </c>
+      <c r="I316" s="7">
+        <v>4382</v>
       </c>
       <c r="J316" s="5">
         <v>448</v>
@@ -13533,8 +13547,8 @@
       <c r="L316" s="5">
         <v>780</v>
       </c>
-      <c r="M316" s="5">
-        <v>34.726999999999997</v>
+      <c r="M316" s="7">
+        <v>34727</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14571,8 +14585,18 @@
       <c r="L342" s="5">
         <v>13</v>
       </c>
-      <c r="M342" s="5">
-        <v>1.9470000000000001</v>
+      <c r="M342" s="7">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
